--- a/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 11,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,52; 24,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,61; -4,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 7,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,8; 19,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,24; -2,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 7,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,31; 20,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; -5,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,97%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 23,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,46; 52,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,1; -8,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,55; 14,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,91; 36,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,66; -4,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 14,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,37; 40,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,47; -10,29</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,56</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 4,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,78; 21,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 3,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 14,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,71; 22,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,02; -3,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 7,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,59; 20,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,24; -2,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,7%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,49; 7,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,31; 38,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,7; 5,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,83; 26,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,91; 41,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,78; -5,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 13,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,05; 36,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,83; -4,28</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 10,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,81; 18,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,1; 2,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 10,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,37; 17,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,77; 0,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 9,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,12; 16,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,33; 0,03</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,83%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 18,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,14; 32,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; 3,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 19,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,95; 31,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; 0,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 15,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,85; 28,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,47; 0,1</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 7,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,41; 19,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,08; -2,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,08; 16,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,79; 20,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,5; 2,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 10,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,08; 19,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,54; -1,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,91%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 12,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,7; 33,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,8; -3,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,92; 28,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,15; 36,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,98; 3,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 17,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,9; 32,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,24; -3,26</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,97</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,87; 2,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 15,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,61; 4,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 9,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 18,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 3,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; 3,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 15,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 2,04</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,33%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,02%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,56; 3,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,58; 26,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,29; 7,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,45; 14,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,43; 30,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,02; 5,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; 5,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,26; 25,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 3,26</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 4,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 10,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,46; 0,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 6,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,7; 19,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 12,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 4,73</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,35; 14,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 6,81</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,28%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,05%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; 7,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 15,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,13; 0,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 10,45</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,47; 30,53</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 19,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 7,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,41; 21,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 10,24</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,12</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 3,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,95; 15,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; -1,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 7,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,68; 17,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 2,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 5,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,37; 15,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; -0,88</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,12%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 5,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 26,05</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,13; -3,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,19; 13,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,29; 28,5</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 3,85</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 8,43</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,85; 26,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; -1,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,6</t>
+          <t>-15,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,74</t>
+          <t>-12,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,7</t>
+          <t>-14,16</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -4,03</t>
+          <t>-24,17; -6,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,24; -2,65</t>
+          <t>-21,96; -4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -5,21</t>
+          <t>-20,35; -7,45</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-24,77%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,25%</t>
+          <t>-22,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-21,97%</t>
+          <t>-26,58%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -8,15</t>
+          <t>-45,62; -13,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,66; -4,97</t>
+          <t>-37,44; -7,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,47; -10,29</t>
+          <t>-37,26; -14,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,3</t>
+          <t>-16,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-11,28</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 3,29</t>
+          <t>-12,69; 2,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -3,14</t>
+          <t>-32,41; -7,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -2,46</t>
+          <t>-22,26; -5,38</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>-8,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,98%</t>
+          <t>-28,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>-19,47%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 5,98</t>
+          <t>-20,65; 3,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,78; -5,75</t>
+          <t>-54,25; -13,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -4,28</t>
+          <t>-37,88; -9,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-4,75</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 2,05</t>
+          <t>-10,98; 1,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 0,47</t>
+          <t>-10,27; -0,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 0,03</t>
+          <t>-9,02; -0,64</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>-7,9%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 3,48</t>
+          <t>-17,0; 2,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 0,82</t>
+          <t>-16,48; -0,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 0,1</t>
+          <t>-14,62; -1,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>-21,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-14,48</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,08; -2,14</t>
+          <t>-44,18; -3,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 2,19</t>
+          <t>-14,29; 0,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,54; -1,95</t>
+          <t>-36,13; -4,42</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-15,01%</t>
+          <t>-34,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,9%</t>
+          <t>-9,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>-23,41%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -3,78</t>
+          <t>-68,66; -6,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 3,77</t>
+          <t>-22,35; 0,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,24; -3,26</t>
+          <t>-59,73; -7,33</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-2,69</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 4,91</t>
+          <t>-8,5; 4,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 3,12</t>
+          <t>-8,4; 2,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,04</t>
+          <t>-6,81; 1,26</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-4,13%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 7,91</t>
+          <t>-12,61; 6,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 5,3</t>
+          <t>-11,85; 4,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 3,26</t>
+          <t>-10,06; 2,03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>3,61</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 4,68</t>
+          <t>-8,09; 6,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 10,15</t>
+          <t>-3,53; 11,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 0,48</t>
+          <t>-12,4; 0,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,78</t>
+          <t>-0,75; 13,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,7; 19,63</t>
+          <t>9,66; 22,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 12,91</t>
+          <t>-5,76; 25,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 4,73</t>
+          <t>-2,66; 7,77</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>7,35; 14,09</t>
+          <t>5,66; 15,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 6,81</t>
+          <t>-5,58; 18,42</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 7,0</t>
+          <t>-11,42; 10,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 15,43</t>
+          <t>-4,87; 18,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 0,75</t>
+          <t>-17,41; 1,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 10,45</t>
+          <t>-1,18; 22,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,47; 30,53</t>
+          <t>14,27; 36,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 19,78</t>
+          <t>-8,77; 41,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 7,31</t>
+          <t>-3,89; 12,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>10,41; 21,22</t>
+          <t>8,12; 24,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 10,24</t>
+          <t>-8,38; 29,01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>13,24</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>14,85</t>
+          <t>14,17</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>14,06</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,52</t>
+          <t>-9,78; 7,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10,95; 15,41</t>
+          <t>-2,16; 12,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -1,78</t>
+          <t>-13,02; 2,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,91</t>
+          <t>-9,41; 4,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,03</t>
+          <t>6,86; 21,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,32</t>
+          <t>-5,5; 7,01</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,08</t>
+          <t>-7,16; 3,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>12,37; 15,65</t>
+          <t>5,75; 15,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,88</t>
+          <t>-6,04; 3,2</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>-6,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>-2,54%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-5,12%</t>
+          <t>-2,15%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-12,96; 10,77</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 19,18</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-16,61; 3,64</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-12,52; 7,52</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 32,47</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 10,68</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 5,47</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 23,27</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 4,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>13,24</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-8,8</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>14,85</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>14,06</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-5,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 3,52</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 15,41</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-21,71; -3,98</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 7,91</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 17,03</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 5,47</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 5,08</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 15,65</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; -2,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-14,51%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-4,77%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-1,66; 5,88</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>17,75; 26,05</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-13,13; -3,0</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-35,55; -6,56</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>5,19; 13,07</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>20,29; 28,5</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 3,85</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-11,25; 9,12</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>2,91; 8,43</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>19,85; 26,0</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-8,31; -1,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-19,32; -3,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 11,43</t>
+          <t>-1,57; 10,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 24,92</t>
+          <t>11,89; 24,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,17; -6,58</t>
+          <t>-24,42; -5,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,49</t>
+          <t>-5,24; 8,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 19,23</t>
+          <t>6,61; 19,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -4,26</t>
+          <t>-21,35; -4,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,47</t>
+          <t>-1,73; 7,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,31; 20,28</t>
+          <t>11,21; 20,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,35; -7,45</t>
+          <t>-20,44; -7,52</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 23,91</t>
+          <t>-2,68; 23,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 52,69</t>
+          <t>21,69; 51,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,62; -13,43</t>
+          <t>-45,95; -11,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 14,31</t>
+          <t>-8,92; 15,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,91; 36,92</t>
+          <t>11,41; 37,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,44; -7,73</t>
+          <t>-37,67; -8,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 14,55</t>
+          <t>-3,2; 15,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,37; 40,15</t>
+          <t>20,23; 40,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,26; -14,28</t>
+          <t>-37,37; -14,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 4,45</t>
+          <t>-6,7; 4,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 21,64</t>
+          <t>11,23; 21,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 2,16</t>
+          <t>-13,07; 2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 14,15</t>
+          <t>3,09; 14,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,71; 22,0</t>
+          <t>10,54; 21,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,41; -7,27</t>
+          <t>-32,31; -7,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,4</t>
+          <t>-0,27; 7,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,59; 20,04</t>
+          <t>13,19; 20,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,26; -5,38</t>
+          <t>-24,05; -5,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 7,91</t>
+          <t>-10,99; 8,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 38,57</t>
+          <t>18,54; 39,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 3,86</t>
+          <t>-21,45; 3,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 26,16</t>
+          <t>5,25; 26,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 41,16</t>
+          <t>17,7; 39,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,25; -13,07</t>
+          <t>-56,26; -13,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 13,25</t>
+          <t>-0,42; 13,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,05; 36,0</t>
+          <t>22,0; 36,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,88; -9,49</t>
+          <t>-40,54; -9,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 10,27</t>
+          <t>-0,67; 9,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,81; 18,4</t>
+          <t>6,88; 17,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 1,34</t>
+          <t>-10,77; 1,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 10,98</t>
+          <t>0,67; 10,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 17,81</t>
+          <t>8,17; 18,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -0,07</t>
+          <t>-10,61; 0,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 9,03</t>
+          <t>1,28; 9,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 16,42</t>
+          <t>9,49; 16,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -0,64</t>
+          <t>-8,75; -0,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 18,0</t>
+          <t>-1,07; 17,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,14; 32,0</t>
+          <t>10,78; 29,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 2,26</t>
+          <t>-16,83; 2,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 19,41</t>
+          <t>1,07; 20,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,95; 31,48</t>
+          <t>13,04; 31,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,48; -0,11</t>
+          <t>-16,73; 0,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 15,57</t>
+          <t>2,1; 15,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,85; 28,26</t>
+          <t>15,42; 29,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -1,1</t>
+          <t>-14,17; -1,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 7,28</t>
+          <t>-4,19; 7,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 19,49</t>
+          <t>8,16; 19,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-44,18; -3,89</t>
+          <t>-46,12; -3,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 16,82</t>
+          <t>4,66; 16,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,79; 20,84</t>
+          <t>9,99; 21,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 0,51</t>
+          <t>-14,8; 0,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 10,74</t>
+          <t>2,28; 10,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,08; 19,03</t>
+          <t>11,21; 18,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-36,13; -4,42</t>
+          <t>-32,72; -4,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 12,49</t>
+          <t>-6,55; 13,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,7; 33,34</t>
+          <t>12,59; 33,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,66; -6,43</t>
+          <t>-70,79; -6,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 28,67</t>
+          <t>6,9; 27,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,15; 36,4</t>
+          <t>15,41; 36,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 0,67</t>
+          <t>-23,54; 0,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,61; 17,71</t>
+          <t>3,54; 17,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,9; 32,12</t>
+          <t>17,57; 31,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,73; -7,33</t>
+          <t>-53,61; -7,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 2,13</t>
+          <t>-11,91; 2,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,04; 15,67</t>
+          <t>2,7; 15,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 4,04</t>
+          <t>-8,48; 3,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 9,18</t>
+          <t>-4,13; 8,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,86; 18,58</t>
+          <t>5,72; 17,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 2,57</t>
+          <t>-8,02; 2,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,58</t>
+          <t>-5,84; 3,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,22; 15,69</t>
+          <t>6,35; 15,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 1,26</t>
+          <t>-7,15; 1,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 3,52</t>
+          <t>-17,58; 3,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4,58; 26,03</t>
+          <t>4,02; 26,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 6,48</t>
+          <t>-12,46; 6,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 14,73</t>
+          <t>-5,81; 13,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,43; 30,32</t>
+          <t>8,32; 28,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 4,15</t>
+          <t>-11,51; 4,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 5,72</t>
+          <t>-8,59; 6,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,26; 25,2</t>
+          <t>9,37; 23,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 2,03</t>
+          <t>-10,54; 2,28</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 6,51</t>
+          <t>-7,77; 7,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 11,51</t>
+          <t>-3,41; 11,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 0,8</t>
+          <t>-11,83; 0,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 13,63</t>
+          <t>-0,28; 12,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,66; 22,26</t>
+          <t>10,13; 22,65</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 25,73</t>
+          <t>-5,54; 29,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 7,77</t>
+          <t>-2,02; 7,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,66; 15,56</t>
+          <t>5,76; 15,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 18,42</t>
+          <t>-5,86; 20,51</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 10,07</t>
+          <t>-10,88; 10,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 18,52</t>
+          <t>-4,8; 18,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 1,23</t>
+          <t>-16,71; 1,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 22,48</t>
+          <t>-0,44; 20,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,27; 36,88</t>
+          <t>14,88; 37,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 41,8</t>
+          <t>-8,47; 49,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 12,16</t>
+          <t>-2,88; 11,99</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,12; 24,69</t>
+          <t>8,34; 23,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 29,01</t>
+          <t>-8,72; 33,62</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 7,43</t>
+          <t>-8,92; 7,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 12,94</t>
+          <t>-1,5; 13,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 2,42</t>
+          <t>-13,03; 2,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 4,88</t>
+          <t>-9,67; 5,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,86; 21,13</t>
+          <t>7,2; 20,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,01</t>
+          <t>-5,15; 7,01</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 3,73</t>
+          <t>-7,48; 3,59</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,6</t>
+          <t>5,87; 15,99</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 3,2</t>
+          <t>-5,87; 3,4</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 10,77</t>
+          <t>-11,97; 10,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 19,18</t>
+          <t>-1,9; 21,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 3,64</t>
+          <t>-16,93; 3,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 7,52</t>
+          <t>-12,86; 8,24</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>9,12; 32,47</t>
+          <t>9,75; 31,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 10,68</t>
+          <t>-6,99; 10,88</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 5,47</t>
+          <t>-10,13; 5,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7,89; 23,27</t>
+          <t>7,98; 23,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 4,71</t>
+          <t>-8,09; 4,98</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,52</t>
+          <t>-1,08; 3,62</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>10,95; 15,41</t>
+          <t>10,82; 15,61</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -3,98</t>
+          <t>-20,79; -3,97</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,91</t>
+          <t>3,04; 7,91</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,03</t>
+          <t>12,67; 17,11</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 5,47</t>
+          <t>-6,84; 4,29</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,08</t>
+          <t>1,92; 5,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>12,37; 15,65</t>
+          <t>12,5; 15,69</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -2,11</t>
+          <t>-11,64; -1,96</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 5,88</t>
+          <t>-1,76; 6,13</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>17,75; 26,05</t>
+          <t>17,41; 26,34</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-35,55; -6,56</t>
+          <t>-34,38; -6,52</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5,19; 13,07</t>
+          <t>4,84; 13,22</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,29; 28,5</t>
+          <t>20,23; 28,42</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 9,12</t>
+          <t>-11,06; 7,1</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,43</t>
+          <t>3,11; 8,48</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>19,85; 26,0</t>
+          <t>20,15; 26,15</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -3,45</t>
+          <t>-19,03; -3,2</t>
         </is>
       </c>
     </row>
